--- a/design/Cotización_de_componentes.xlsx
+++ b/design/Cotización_de_componentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharon Valverde\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kley2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29454EB1-DD0E-4FC9-9036-9AA84302A7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F004A8E3-AD31-4475-8CAC-28C739638212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C09BFA17-DDE1-4985-B2D5-254325642878}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C09BFA17-DDE1-4985-B2D5-254325642878}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Componente</t>
   </si>
@@ -116,6 +116,21 @@
   </si>
   <si>
     <t>Potenciómetro digital X9C103P</t>
+  </si>
+  <si>
+    <t>(Opcional)</t>
+  </si>
+  <si>
+    <t>Analog Output K-Type Thermocouple Amplifier - AD8495 Breakout</t>
+  </si>
+  <si>
+    <t>2 (1)</t>
+  </si>
+  <si>
+    <t>CRCibernetica</t>
+  </si>
+  <si>
+    <t>100 Ω</t>
   </si>
 </sst>
 </file>
@@ -196,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -207,6 +222,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,19 +546,19 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -554,7 +575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -571,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -588,7 +609,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -605,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -622,7 +643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -639,7 +660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -656,7 +677,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -673,7 +694,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -690,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -707,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -724,79 +745,101 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
